--- a/invoice/template pages search Eduardo.xlsx
+++ b/invoice/template pages search Eduardo.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="14580" windowHeight="14960"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="14580" windowHeight="14955"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Invoice" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <definedName name="Ownership" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Basic Invoice'!$A$1:$I$45</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -47,7 +47,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B17" authorId="0">
+    <comment ref="B17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>INVOICE</t>
   </si>
@@ -121,34 +121,16 @@
     <t>THANK YOU FOR YOUR BUSINESS!</t>
   </si>
   <si>
-    <t>(915) 252-0244</t>
-  </si>
-  <si>
-    <t>11880 Balladeer ave.</t>
-  </si>
-  <si>
-    <t>El Paso, TX, 79936</t>
-  </si>
-  <si>
     <t>JetDevLLC</t>
   </si>
   <si>
     <t>SERVICE TO:</t>
   </si>
   <si>
-    <t>notes: 50% payable to Robert Madrid and the other 50% to Eduardo Corral</t>
-  </si>
-  <si>
-    <t>Robert Madrid</t>
-  </si>
-  <si>
     <t>Search Field</t>
   </si>
   <si>
     <t>Template pages (50%)</t>
-  </si>
-  <si>
-    <t>filter search bar</t>
   </si>
   <si>
     <t>Eduardo Corral</t>
@@ -159,25 +141,37 @@
   <si>
     <t>email: Ecorra37@gmail.com</t>
   </si>
+  <si>
+    <t>1432 Backus St.</t>
+  </si>
+  <si>
+    <t>El Paso, TX, 79925</t>
+  </si>
+  <si>
+    <t>915.887.8649</t>
+  </si>
+  <si>
+    <t>Filter search bar</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="11">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="0.00%_);[Red]\(0.00%\)"/>
-    <numFmt numFmtId="171" formatCode="0%_);[Red]\(0%\)"/>
-    <numFmt numFmtId="172" formatCode="mmmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="0.00%_);[Red]\(0.00%\)"/>
+    <numFmt numFmtId="169" formatCode="0%_);[Red]\(0%\)"/>
+    <numFmt numFmtId="170" formatCode="mmmm\ d\,\ yyyy"/>
   </numFmts>
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="46">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -977,7 +971,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2">
+    <xf numFmtId="5" fontId="16" fillId="0" borderId="2">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyBorder="0">
@@ -986,19 +980,19 @@
     <xf numFmtId="0" fontId="33" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="5" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5"/>
     <xf numFmtId="4" fontId="16" fillId="20" borderId="5">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="4" fontId="16" fillId="21" borderId="5"/>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="6"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="6"/>
     <xf numFmtId="37" fontId="20" fillId="22" borderId="2" applyBorder="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1023,9 +1017,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="10"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="10"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="12"/>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="12"/>
     <xf numFmtId="0" fontId="40" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="23" borderId="0">
       <alignment horizontal="left" wrapText="1" indent="1"/>
@@ -1036,8 +1030,8 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="41" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="26" fillId="25" borderId="16"/>
-    <xf numFmtId="170" fontId="26" fillId="0" borderId="16" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="169" fontId="26" fillId="25" borderId="16"/>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="16" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="27" fillId="0" borderId="0">
@@ -1051,11 +1045,11 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1085,7 +1079,7 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="6" fillId="29" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="6" fillId="29" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1119,7 +1113,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="6" fillId="24" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="7" fontId="6" fillId="24" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="37" fontId="6" fillId="29" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1137,7 +1131,7 @@
     <xf numFmtId="39" fontId="6" fillId="29" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="24" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="7" fontId="6" fillId="24" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1162,14 +1156,15 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="52" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="52" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="75">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1723,34 +1718,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet50" enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet50">
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:L47"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A35" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
-    <col min="3" max="4" width="12.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="12.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="2" customHeight="1"/>
+    <row r="1" spans="2:9" ht="2.1" customHeight="1"/>
     <row r="2" spans="2:9" ht="6" customHeight="1"/>
-    <row r="3" spans="2:9" ht="30">
+    <row r="3" spans="2:9" ht="33">
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1764,7 +1759,7 @@
     </row>
     <row r="4" spans="2:9" ht="12" customHeight="1">
       <c r="B4" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -1776,19 +1771,19 @@
     </row>
     <row r="5" spans="2:9" ht="12" customHeight="1">
       <c r="B5" s="8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="2:9" ht="14" customHeight="1">
+    <row r="6" spans="2:9" ht="14.1" customHeight="1">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1798,9 +1793,9 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="2:9" ht="14" customHeight="1">
+    <row r="7" spans="2:9" ht="14.1" customHeight="1">
       <c r="B7" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1810,9 +1805,9 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="2:9" ht="14" customHeight="1">
+    <row r="8" spans="2:9" ht="14.1" customHeight="1">
       <c r="B8" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -1822,7 +1817,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="2:9" ht="14" customHeight="1">
+    <row r="9" spans="2:9" ht="14.1" customHeight="1">
       <c r="B9" s="8"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -1834,10 +1829,10 @@
       </c>
       <c r="I9" s="13">
         <f ca="1">NOW()</f>
-        <v>42088.678047106485</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="14" customHeight="1">
+        <v>42088.729838657404</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="14.1" customHeight="1">
       <c r="B10" s="8"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -1847,7 +1842,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="2:9" ht="14" customHeight="1">
+    <row r="11" spans="2:9" ht="14.1" customHeight="1">
       <c r="B11" s="14"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -1857,7 +1852,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="2:9" ht="14" customHeight="1">
+    <row r="12" spans="2:9" ht="14.1" customHeight="1">
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1867,7 +1862,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" spans="2:9" ht="14" customHeight="1">
+    <row r="13" spans="2:9" ht="14.1" customHeight="1">
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -1877,7 +1872,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="2:9" ht="14" customHeight="1">
+    <row r="14" spans="2:9" ht="14.1" customHeight="1">
       <c r="B14" s="8"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -1887,7 +1882,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="2:9" ht="14" customHeight="1">
+    <row r="15" spans="2:9" ht="14.1" customHeight="1">
       <c r="B15" s="8"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -1897,7 +1892,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="15"/>
     </row>
-    <row r="16" spans="2:9" ht="14" customHeight="1">
+    <row r="16" spans="2:9" ht="14.1" customHeight="1">
       <c r="B16" s="8"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -1907,7 +1902,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="15"/>
     </row>
-    <row r="17" spans="2:12" ht="14" customHeight="1">
+    <row r="17" spans="2:12" ht="14.1" customHeight="1">
       <c r="B17" s="8"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -1917,7 +1912,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="2:12" ht="14" customHeight="1">
+    <row r="18" spans="2:12" ht="14.1" customHeight="1">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="45"/>
@@ -1927,7 +1922,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="2:12" ht="14" customHeight="1">
+    <row r="19" spans="2:12" ht="14.1" customHeight="1">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1955,12 +1950,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="20" customHeight="1">
+    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="23">
         <v>0.5</v>
       </c>
-      <c r="C21" s="43" t="s">
-        <v>20</v>
+      <c r="C21" s="49" t="s">
+        <v>15</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -1973,12 +1968,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="20" customHeight="1">
+    <row r="22" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="23">
         <v>1</v>
       </c>
-      <c r="C22" s="49" t="s">
-        <v>19</v>
+      <c r="C22" s="50" t="s">
+        <v>14</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -1991,12 +1986,12 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="20" customHeight="1">
+    <row r="23" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="23">
         <v>1</v>
       </c>
-      <c r="C23" s="43" t="s">
-        <v>21</v>
+      <c r="C23" s="49" t="s">
+        <v>22</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -2008,9 +2003,9 @@
       <c r="I23" s="25">
         <v>80</v>
       </c>
-      <c r="L23" s="48"/>
-    </row>
-    <row r="24" spans="2:12" ht="20" customHeight="1">
+      <c r="L23" s="46"/>
+    </row>
+    <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B24" s="23"/>
       <c r="C24" s="43"/>
       <c r="D24" s="7"/>
@@ -2020,7 +2015,7 @@
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
     </row>
-    <row r="25" spans="2:12" ht="20" customHeight="1">
+    <row r="25" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="23"/>
       <c r="C25" s="43"/>
       <c r="D25" s="7"/>
@@ -2033,7 +2028,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="20" customHeight="1">
+    <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B26" s="23"/>
       <c r="C26" s="43"/>
       <c r="D26" s="7"/>
@@ -2043,7 +2038,7 @@
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
     </row>
-    <row r="27" spans="2:12" ht="20" customHeight="1">
+    <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="23"/>
       <c r="C27" s="43"/>
       <c r="D27" s="7"/>
@@ -2056,7 +2051,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="20" customHeight="1">
+    <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B28" s="23"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -2068,7 +2063,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="20" customHeight="1">
+    <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B29" s="23"/>
       <c r="C29" s="43"/>
       <c r="D29" s="7"/>
@@ -2081,7 +2076,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="20" customHeight="1">
+    <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B30" s="23"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -2093,7 +2088,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="20" customHeight="1">
+    <row r="31" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B31" s="23"/>
       <c r="C31" s="43"/>
       <c r="D31" s="7"/>
@@ -2103,7 +2098,7 @@
       <c r="H31" s="25"/>
       <c r="I31" s="25"/>
     </row>
-    <row r="32" spans="2:12" ht="20" customHeight="1">
+    <row r="32" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B32" s="23"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -2115,7 +2110,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="20" customHeight="1">
+    <row r="33" spans="2:9" ht="20.100000000000001" customHeight="1">
       <c r="B33" s="23"/>
       <c r="C33" s="43"/>
       <c r="D33" s="7"/>
@@ -2125,11 +2120,9 @@
       <c r="H33" s="25"/>
       <c r="I33" s="25"/>
     </row>
-    <row r="34" spans="2:9" ht="20" customHeight="1">
+    <row r="34" spans="2:9" ht="20.100000000000001" customHeight="1">
       <c r="B34" s="26"/>
-      <c r="C34" s="44" t="s">
-        <v>17</v>
-      </c>
+      <c r="C34" s="44"/>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
@@ -2140,7 +2133,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="20" customHeight="1">
+    <row r="35" spans="2:9" ht="20.100000000000001" customHeight="1">
       <c r="B35" s="30"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -2155,7 +2148,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="20" customHeight="1">
+    <row r="36" spans="2:9" ht="20.100000000000001" customHeight="1">
       <c r="B36" s="30"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -2170,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="20" customHeight="1">
+    <row r="37" spans="2:9" ht="20.100000000000001" customHeight="1">
       <c r="B37" s="33"/>
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
@@ -2182,7 +2175,7 @@
       </c>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="2:9" ht="14" customHeight="1">
+    <row r="38" spans="2:9" ht="14.1" customHeight="1">
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -2211,7 +2204,7 @@
     </row>
     <row r="40" spans="2:9" ht="12" customHeight="1">
       <c r="B40" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -2225,7 +2218,7 @@
     </row>
     <row r="41" spans="2:9" ht="12" customHeight="1">
       <c r="B41" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -2237,7 +2230,7 @@
     </row>
     <row r="42" spans="2:9" ht="12" customHeight="1">
       <c r="B42" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -2270,14 +2263,14 @@
       <c r="I44" s="42"/>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="46"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="47"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2286,9 +2279,10 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.23622047244094491" footer="0.51181102362204722"/>
+  <pageSetup scale="93" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/invoice/template pages search Eduardo.xlsx
+++ b/invoice/template pages search Eduardo.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>INVOICE</t>
   </si>
@@ -153,6 +153,9 @@
   <si>
     <t>Filter search bar</t>
   </si>
+  <si>
+    <t>Relational Database 2/2 (50%)</t>
+  </si>
 </sst>
 </file>
 
@@ -1157,14 +1160,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="52" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="52" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="75">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1723,9 +1726,7 @@
   </sheetPr>
   <dimension ref="B1:L47"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A35" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
@@ -1829,7 +1830,7 @@
       </c>
       <c r="I9" s="13">
         <f ca="1">NOW()</f>
-        <v>42088.729838657404</v>
+        <v>42088.953756249997</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="14.1" customHeight="1">
@@ -1954,7 +1955,7 @@
       <c r="B21" s="23">
         <v>0.5</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="47" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="7"/>
@@ -1972,7 +1973,7 @@
       <c r="B22" s="23">
         <v>1</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="48" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="7"/>
@@ -1990,7 +1991,7 @@
       <c r="B23" s="23">
         <v>1</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="47" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="7"/>
@@ -2006,14 +2007,22 @@
       <c r="L23" s="46"/>
     </row>
     <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B24" s="23"/>
-      <c r="C24" s="43"/>
+      <c r="B24" s="23">
+        <v>1</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>23</v>
+      </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="24"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
+      <c r="H24" s="25">
+        <v>250</v>
+      </c>
+      <c r="I24" s="25">
+        <v>250</v>
+      </c>
     </row>
     <row r="25" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="23"/>
@@ -2145,7 +2154,7 @@
       </c>
       <c r="I35" s="29">
         <f>IF(SUM(I21:I34),SUM(I21:I34),"")</f>
-        <v>530</v>
+        <v>780</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="20.100000000000001" customHeight="1">
@@ -2185,7 +2194,7 @@
       <c r="H38" s="7"/>
       <c r="I38" s="36">
         <f>IF(SUM(I35),SUM(I35:I37),"")</f>
-        <v>530</v>
+        <v>780</v>
       </c>
     </row>
     <row r="39" spans="2:9" ht="12" customHeight="1">
@@ -2263,14 +2272,14 @@
       <c r="I44" s="42"/>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="47"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="48"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="1">
